--- a/data/trans_orig/P1803-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DA4970-A039-4AC3-831C-351112445135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C957C83-511B-4692-B80D-1DAD1C9A0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD8145C-9373-4A19-AAD1-FAA52E75898C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFF42072-369E-4917-A300-EDAB2953607B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,52 +141,46 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,77%</t>
+    <t>94,76%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,79 +189,73 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -276,19 +264,13 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>94,95%</t>
@@ -297,7 +279,7 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,211 +291,217 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD704DAF-F50C-4CB9-BE84-9525C84B48D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A5E-AA17-44FA-B54D-491B5C12D9A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1219,13 +1207,13 @@
         <v>105160</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -1234,13 +1222,13 @@
         <v>193534</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1243,13 @@
         <v>1988011</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1810</v>
@@ -1270,13 +1258,13 @@
         <v>1883140</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3682</v>
@@ -1285,13 +1273,13 @@
         <v>3871151</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,7 +1335,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1359,13 +1347,13 @@
         <v>37917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1374,13 +1362,13 @@
         <v>48333</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1389,13 +1377,13 @@
         <v>86249</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1398,13 @@
         <v>508969</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1425,13 +1413,13 @@
         <v>500807</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>948</v>
@@ -1440,13 +1428,13 @@
         <v>1009777</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1502,13 @@
         <v>154450</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -1529,13 +1517,13 @@
         <v>194763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>321</v>
@@ -1544,13 +1532,13 @@
         <v>349213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,13 +1553,13 @@
         <v>3223168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>3146</v>
@@ -1580,13 +1568,13 @@
         <v>3337337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>6220</v>
@@ -1595,13 +1583,13 @@
         <v>6560505</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1645,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6774C273-284E-491C-BD66-B5C419E75305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4BBD-29CA-4742-9A5B-3459B1BDF2BB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1800,13 +1788,13 @@
         <v>22562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -1815,13 +1803,13 @@
         <v>55573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -1830,13 +1818,13 @@
         <v>78135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1839,13 @@
         <v>519072</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>1328</v>
@@ -1866,13 +1854,13 @@
         <v>779755</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>1992</v>
@@ -1881,13 +1869,13 @@
         <v>1298827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1943,13 @@
         <v>217358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>302</v>
@@ -1970,13 +1958,13 @@
         <v>199526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>459</v>
@@ -1985,13 +1973,13 @@
         <v>416884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,28 +1994,28 @@
         <v>1944664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>2618</v>
       </c>
       <c r="I8" s="7">
-        <v>2049270</v>
+        <v>2049269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>4453</v>
@@ -2036,13 +2024,13 @@
         <v>3993933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2057,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2086,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2110,13 +2098,13 @@
         <v>83372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -2125,13 +2113,13 @@
         <v>109866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -2140,13 +2128,13 @@
         <v>193238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2149,13 @@
         <v>589667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>855</v>
@@ -2176,13 +2164,13 @@
         <v>604020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1457</v>
@@ -2191,13 +2179,13 @@
         <v>1193688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2253,13 @@
         <v>323291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>549</v>
@@ -2280,13 +2268,13 @@
         <v>364965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>812</v>
@@ -2295,13 +2283,13 @@
         <v>688257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,16 +2301,16 @@
         <v>3101</v>
       </c>
       <c r="D14" s="7">
-        <v>3053404</v>
+        <v>3053403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>4801</v>
@@ -2331,13 +2319,13 @@
         <v>3433045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>7902</v>
@@ -2346,13 +2334,13 @@
         <v>6486447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2352,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2408,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1803-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C957C83-511B-4692-B80D-1DAD1C9A0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17622BB-8216-490B-A039-9167F9511898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFF42072-369E-4917-A300-EDAB2953607B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E76F15E-5D58-4600-8948-DD73D2335E0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,211 +75,229 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -450,9 +468,6 @@
     <t>87,62%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
     <t>7,82%</t>
   </si>
   <si>
@@ -475,9 +490,6 @@
   </si>
   <si>
     <t>12,05%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
   </si>
   <si>
     <t>84,89%</t>
@@ -913,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A5E-AA17-44FA-B54D-491B5C12D9A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201F20B4-B80D-4527-ADBD-959BD6E89678}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1207,13 +1219,13 @@
         <v>105160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -1222,13 +1234,13 @@
         <v>193534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1255,13 @@
         <v>1988011</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1810</v>
@@ -1258,13 +1270,13 @@
         <v>1883140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3682</v>
@@ -1273,13 +1285,13 @@
         <v>3871151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1335,7 +1347,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1347,13 +1359,13 @@
         <v>37917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1362,13 +1374,13 @@
         <v>48333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1377,13 +1389,13 @@
         <v>86249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,13 +1410,13 @@
         <v>508969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1413,13 +1425,13 @@
         <v>500807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>948</v>
@@ -1428,13 +1440,13 @@
         <v>1009777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,13 +1514,13 @@
         <v>154450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -1517,13 +1529,13 @@
         <v>194763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>321</v>
@@ -1532,13 +1544,13 @@
         <v>349213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1565,13 @@
         <v>3223168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3146</v>
@@ -1568,13 +1580,13 @@
         <v>3337337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6220</v>
@@ -1583,13 +1595,13 @@
         <v>6560505</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,7 +1657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4BBD-29CA-4742-9A5B-3459B1BDF2BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34AAC0E-9D17-4605-9AC7-20C7B596C047}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1788,13 +1800,13 @@
         <v>22562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -1803,13 +1815,13 @@
         <v>55573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -1818,13 +1830,13 @@
         <v>78135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1851,13 @@
         <v>519072</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1328</v>
@@ -1854,13 +1866,13 @@
         <v>779755</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1992</v>
@@ -1869,13 +1881,13 @@
         <v>1298827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1955,13 @@
         <v>217358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>302</v>
@@ -1958,13 +1970,13 @@
         <v>199526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>459</v>
@@ -1973,13 +1985,13 @@
         <v>416884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2006,13 @@
         <v>1944664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2618</v>
@@ -2009,13 +2021,13 @@
         <v>2049269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>4453</v>
@@ -2024,13 +2036,13 @@
         <v>3993933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2098,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2110,13 @@
         <v>83372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -2113,13 +2125,13 @@
         <v>109866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -2128,13 +2140,13 @@
         <v>193238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2161,13 @@
         <v>589667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>855</v>
@@ -2164,13 +2176,13 @@
         <v>604020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1457</v>
@@ -2179,13 +2191,13 @@
         <v>1193688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2265,13 @@
         <v>323291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>549</v>
@@ -2268,13 +2280,13 @@
         <v>364965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>812</v>
@@ -2283,13 +2295,13 @@
         <v>688257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2316,13 @@
         <v>3053403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>4801</v>
@@ -2319,13 +2331,13 @@
         <v>3433045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>7902</v>
@@ -2334,13 +2346,13 @@
         <v>6486447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1803-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17622BB-8216-490B-A039-9167F9511898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3EC54-156C-489F-8DC6-E3351B7C7C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E76F15E-5D58-4600-8948-DD73D2335E0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E27A210E-B491-4F2F-B301-4CBBF5ED35BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,102 +39,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="206">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>4,26%</t>
@@ -141,31 +266,31 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,75%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>96,63%</t>
@@ -174,346 +299,364 @@
     <t>94,71%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
 </sst>
 </file>
@@ -925,8 +1068,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201F20B4-B80D-4527-ADBD-959BD6E89678}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB84439D-6514-4BE4-B8B7-AA0CA6C8E15F}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1043,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>28158</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1058,550 +1201,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>41270</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>64</v>
-      </c>
-      <c r="N4" s="7">
-        <v>69429</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>734</v>
-      </c>
-      <c r="D5" s="7">
-        <v>726189</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>856</v>
-      </c>
-      <c r="I5" s="7">
-        <v>953390</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1590</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1679578</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>762</v>
-      </c>
-      <c r="D6" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>892</v>
-      </c>
-      <c r="I6" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>80</v>
-      </c>
-      <c r="D7" s="7">
-        <v>88374</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>98</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105160</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>178</v>
-      </c>
-      <c r="N7" s="7">
-        <v>193534</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1872</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1988011</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1810</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>1883140</v>
+        <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3682</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>3871151</v>
+        <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>37917</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>48333</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>86249</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>468</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>508969</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>480</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>500807</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>948</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>1009777</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>154450</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>194763</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>349213</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3223168</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>3146</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3337337</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>6220</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6560505</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,74 +1751,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>87</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34AAC0E-9D17-4605-9AC7-20C7B596C047}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C5D23C-30ED-429F-A0FB-9A9E8C1DE7F4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1693,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,565 +2141,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>908</v>
       </c>
       <c r="D4" s="7">
-        <v>22562</v>
+        <v>974643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>98</v>
+        <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>55573</v>
+        <v>1337796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>125</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>78135</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>664</v>
-      </c>
-      <c r="D5" s="7">
-        <v>519072</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1328</v>
-      </c>
-      <c r="I5" s="7">
-        <v>779755</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="M5" s="7">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1298827</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1426</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835328</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2117</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1376962</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>908</v>
+      </c>
+      <c r="D7" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>157</v>
-      </c>
-      <c r="D7" s="7">
-        <v>217358</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="7">
-        <v>302</v>
-      </c>
-      <c r="I7" s="7">
-        <v>199526</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="7">
-        <v>459</v>
-      </c>
-      <c r="N7" s="7">
-        <v>416884</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1835</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>1944664</v>
+        <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2618</v>
+        <v>1635</v>
       </c>
       <c r="I8" s="7">
-        <v>2049269</v>
+        <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>4453</v>
+        <v>3491</v>
       </c>
       <c r="N8" s="7">
-        <v>3993933</v>
+        <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>4912</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>83372</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>109866</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>193238</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>602</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>589667</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>855</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>604020</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1457</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>1193688</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1004</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1685</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>323291</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>364965</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>688257</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3101</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3053403</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>4801</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3433045</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>7902</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6486447</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,66 +2706,2182 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3364</v>
+        <v>438</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5350</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <v>3798010</v>
+        <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8714</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>7174704</v>
+        <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>87</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B13BB-69C3-4028-9ADE-EA5D254CEDA7}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28158</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>41270</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>64</v>
+      </c>
+      <c r="N5" s="7">
+        <v>69429</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>734</v>
+      </c>
+      <c r="D6" s="7">
+        <v>726189</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>856</v>
+      </c>
+      <c r="I6" s="7">
+        <v>953390</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1590</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1679578</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>892</v>
+      </c>
+      <c r="I7" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <v>88374</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7">
+        <v>98</v>
+      </c>
+      <c r="I9" s="7">
+        <v>105160</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="7">
+        <v>178</v>
+      </c>
+      <c r="N9" s="7">
+        <v>193534</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1872</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1988011</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1810</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1883140</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3682</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3871151</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>37917</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="7">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7">
+        <v>48333</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7">
+        <v>79</v>
+      </c>
+      <c r="N13" s="7">
+        <v>86249</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>468</v>
+      </c>
+      <c r="D14" s="7">
+        <v>508969</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>480</v>
+      </c>
+      <c r="I14" s="7">
+        <v>500807</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7">
+        <v>948</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1009777</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7">
+        <v>154450</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>180</v>
+      </c>
+      <c r="I17" s="7">
+        <v>194763</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
+        <v>321</v>
+      </c>
+      <c r="N17" s="7">
+        <v>349213</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3074</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3223168</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3146</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3337337</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6220</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6560505</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E686527-69BF-49C9-BE83-F075C70DD88E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22562</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>55573</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="7">
+        <v>125</v>
+      </c>
+      <c r="N5" s="7">
+        <v>78135</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>664</v>
+      </c>
+      <c r="D6" s="7">
+        <v>519072</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1328</v>
+      </c>
+      <c r="I6" s="7">
+        <v>779755</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1992</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1298827</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>691</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I7" s="7">
+        <v>835328</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2117</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1376962</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>157</v>
+      </c>
+      <c r="D9" s="7">
+        <v>217358</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="7">
+        <v>302</v>
+      </c>
+      <c r="I9" s="7">
+        <v>199526</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="7">
+        <v>459</v>
+      </c>
+      <c r="N9" s="7">
+        <v>416884</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1835</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1944664</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2618</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2049270</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4453</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3993933</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2162022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2920</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2248796</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4912</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4410817</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7">
+        <v>83372</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7">
+        <v>149</v>
+      </c>
+      <c r="I13" s="7">
+        <v>109866</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="7">
+        <v>228</v>
+      </c>
+      <c r="N13" s="7">
+        <v>193238</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>602</v>
+      </c>
+      <c r="D14" s="7">
+        <v>589667</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7">
+        <v>855</v>
+      </c>
+      <c r="I14" s="7">
+        <v>604020</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1457</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1193688</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>681</v>
+      </c>
+      <c r="D15" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="7">
+        <v>713886</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1386926</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>263</v>
+      </c>
+      <c r="D17" s="7">
+        <v>323291</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>549</v>
+      </c>
+      <c r="I17" s="7">
+        <v>364965</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="7">
+        <v>812</v>
+      </c>
+      <c r="N17" s="7">
+        <v>688257</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3101</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3053404</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4801</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3433045</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7902</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6486447</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3364</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3376695</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5350</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3798010</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8714</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7174704</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1803-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3EC54-156C-489F-8DC6-E3351B7C7C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C101365-3384-489A-9853-282CD6CFE2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E27A210E-B491-4F2F-B301-4CBBF5ED35BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD2A9DC5-3442-4695-9421-159949F2123B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -437,52 +437,58 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -491,172 +497,166 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB84439D-6514-4BE4-B8B7-AA0CA6C8E15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3771642-9F8F-437E-B703-E4E7A2BD7EDD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1219,7 +1219,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1395,7 +1395,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1807,7 +1807,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1822,7 +1822,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1837,7 +1837,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1960,7 +1960,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1975,7 +1975,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1990,7 +1990,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2023,7 +2023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C5D23C-30ED-429F-A0FB-9A9E8C1DE7F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72469C1C-7064-450D-B7EA-E0742FADDFB2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2159,7 +2159,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2312,7 +2312,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2586,7 +2586,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2739,7 +2739,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2978,7 +2978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B13BB-69C3-4028-9ADE-EA5D254CEDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB7528-C437-472D-8BAE-049C3929067D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3592,7 +3592,7 @@
         <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>86249</v>
+        <v>86250</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>99</v>
@@ -3694,7 +3694,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3933,7 +3933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E686527-69BF-49C9-BE83-F075C70DD88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82450075-514E-416B-92AC-F75CFE1E353C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,7 +4105,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>22562</v>
+        <v>21770</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
@@ -4120,7 +4120,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="7">
-        <v>55573</v>
+        <v>51081</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>135</v>
@@ -4135,16 +4135,16 @@
         <v>125</v>
       </c>
       <c r="N5" s="7">
-        <v>78135</v>
+        <v>72851</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,46 +4156,46 @@
         <v>664</v>
       </c>
       <c r="D6" s="7">
-        <v>519072</v>
+        <v>493168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1328</v>
       </c>
       <c r="I6" s="7">
-        <v>779755</v>
+        <v>703861</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>1992</v>
       </c>
       <c r="N6" s="7">
-        <v>1298827</v>
+        <v>1197030</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4207,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4222,7 +4222,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835328</v>
+        <v>754942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4237,7 +4237,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376962</v>
+        <v>1269881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4284,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,46 +4311,46 @@
         <v>157</v>
       </c>
       <c r="D9" s="7">
-        <v>217358</v>
+        <v>410051</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>199526</v>
+        <v>188755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>459</v>
       </c>
       <c r="N9" s="7">
-        <v>416884</v>
+        <v>598807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,46 +4362,46 @@
         <v>1835</v>
       </c>
       <c r="D10" s="7">
-        <v>1944664</v>
+        <v>1880276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>2618</v>
       </c>
       <c r="I10" s="7">
-        <v>2049270</v>
+        <v>2048390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>4453</v>
       </c>
       <c r="N10" s="7">
-        <v>3993933</v>
+        <v>3928665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4413,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4428,7 +4428,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4443,7 +4443,7 @@
         <v>4912</v>
       </c>
       <c r="N11" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4517,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>83372</v>
+        <v>82686</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>169</v>
@@ -4532,7 +4532,7 @@
         <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>109866</v>
+        <v>104830</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>172</v>
@@ -4547,7 +4547,7 @@
         <v>228</v>
       </c>
       <c r="N13" s="7">
-        <v>193238</v>
+        <v>187515</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>175</v>
@@ -4568,7 +4568,7 @@
         <v>602</v>
       </c>
       <c r="D14" s="7">
-        <v>589667</v>
+        <v>563937</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>178</v>
@@ -4583,7 +4583,7 @@
         <v>855</v>
       </c>
       <c r="I14" s="7">
-        <v>604020</v>
+        <v>555633</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>181</v>
@@ -4598,7 +4598,7 @@
         <v>1457</v>
       </c>
       <c r="N14" s="7">
-        <v>1193688</v>
+        <v>1119571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>184</v>
@@ -4619,7 +4619,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4634,7 +4634,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4649,7 +4649,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4696,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>263</v>
       </c>
       <c r="D17" s="7">
-        <v>323291</v>
+        <v>514508</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>188</v>
@@ -4738,7 +4738,7 @@
         <v>549</v>
       </c>
       <c r="I17" s="7">
-        <v>364965</v>
+        <v>344666</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>191</v>
@@ -4753,7 +4753,7 @@
         <v>812</v>
       </c>
       <c r="N17" s="7">
-        <v>688257</v>
+        <v>859173</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>194</v>
@@ -4774,7 +4774,7 @@
         <v>3101</v>
       </c>
       <c r="D18" s="7">
-        <v>3053404</v>
+        <v>2937381</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>197</v>
@@ -4789,7 +4789,7 @@
         <v>4801</v>
       </c>
       <c r="I18" s="7">
-        <v>3433045</v>
+        <v>3307884</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>200</v>
@@ -4804,7 +4804,7 @@
         <v>7902</v>
       </c>
       <c r="N18" s="7">
-        <v>6486447</v>
+        <v>6245266</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>203</v>
@@ -4825,7 +4825,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4840,7 +4840,7 @@
         <v>5350</v>
       </c>
       <c r="I19" s="7">
-        <v>3798010</v>
+        <v>3652550</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4855,7 +4855,7 @@
         <v>8714</v>
       </c>
       <c r="N19" s="7">
-        <v>7174704</v>
+        <v>7104439</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
